--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_05_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_05_end.xlsx
@@ -1064,7 +1064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="무장 감염자 A"]  넌 진짜 *라이타니엔 욕설*이냐?! 거리에 뛰어다니는 놈들이 전부 인질이지 그럼 뭐야!
+    <t xml:space="preserve">[name="무장 감염자 A"]  넌 진짜 *라이타니아 욕설*이냐?! 거리에 뛰어다니는 놈들이 전부 인질이지 그럼 뭐야!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_05_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_05_end.xlsx
@@ -716,15 +716,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected A"]  Hey! It wasn’t easy to get that gizmo. You better shoot straight!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected B"]  Shut it! This thing isn’t easy to use! Luckily I studied at the conservatory!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected A"]  Which one?! Hey, Gendarmerie! Don’t do anything stupid. We got hostages!
+    <t xml:space="preserve">[name="Armed Infected A"]  Hey! It wasn't easy to get that gizmo. You better shoot straight!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected B"]  Shut it! This thing isn't easy to use! Luckily I studied at the conservatory!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected A"]  Which one?! Hey, Gendarmerie! Don't do anything stupid. We got hostages!
 </t>
   </si>
   <si>
@@ -752,7 +752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  So many innocent people won’t make it out in time. We must save them!
+    <t xml:space="preserve">[name="Tatjana"]  So many innocent people won't make it out in time. We must save them!
 </t>
   </si>
   <si>
@@ -792,19 +792,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Ugh... I’m fine. But they can’t control those automatic Arts units. We’re in danger here!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Stubborn Townsfolk"]  We’ll fight back together! Push them out!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  Now... isn’t the time...! Gah...!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Stubborn Townsfolk"]  Your foot...! F-fine, I’ll listen to you!
+    <t xml:space="preserve">[name="Tatjana"]  Ugh... I'm fine. But they can't control those automatic Arts units. We're in danger here!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Stubborn Townsfolk"]  We'll fight back together! Push them out!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  Now... isn't the time...! Gah...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Stubborn Townsfolk"]  Your foot...! F-fine, I'll listen to you!
 </t>
   </si>
   <si>
@@ -840,7 +840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Medics, you are to obey this young Vulpo’s every word. Able-bodied youth will help as well.
+    <t xml:space="preserve">[name="Severin"]  Medics, you are to obey this young Vulpo's every word. Able-bodied youth will help as well.
 </t>
   </si>
   <si>
@@ -852,7 +852,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Wait... she isn’t back yet?
+    <t xml:space="preserve">[name="Severin"]  Wait... she isn't back yet?
 </t>
   </si>
   <si>
@@ -860,7 +860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  They, I think they’re still at Zwölftontechnik Strasse...
+    <t xml:space="preserve">[name="Townsfolk"]  They, I think they're still at Zwölftontechnik Strasse...
 </t>
   </si>
   <si>
@@ -868,11 +868,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Er! S- sorry, sir! But Folinic and Tatjana should be alright. They’ve saved many lives!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  What do you mean they’ll be alright? The insurgents have control of our town’s defenses, we have no regular troops, and——*cough* *cough* *cough*!
+    <t xml:space="preserve">[name="Townsfolk"]  Er! S- sorry, sir! But Folinic and Tatjana should be alright. They've saved many lives!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  What do you mean they'll be alright? The insurgents have control of our town's defenses, we have no regular troops, and——*cough* *cough* *cough*!
 </t>
   </si>
   <si>
@@ -880,11 +880,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  But they have firepower, and maybe hostages. We shouldn’t provoke them any more. Let’s wait for a chance to parley.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  A chance? You’re going to wait for the enemy to give you a chance? Have you ever fought a battle?!
+    <t xml:space="preserve">[name="Townsfolk"]  But they have firepower, and maybe hostages. We shouldn't provoke them any more. Let's wait for a chance to parley.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  A chance? You're going to wait for the enemy to give you a chance? Have you ever fought a battle?!
 </t>
   </si>
   <si>
@@ -896,7 +896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Where did you come from? You shouldn’t be here!
+    <t xml:space="preserve">[name="Townsfolk"]  Where did you come from? You shouldn't be here!
 </t>
   </si>
   <si>
@@ -904,7 +904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  With no Gendarmerie, we’re the ones who shouldn’t be here... I’ve seen you before, Rhodes Island Operators.
+    <t xml:space="preserve">[name="Severin"]  With no Gendarmerie, we're the ones who shouldn't be here... I've seen you before, Rhodes Island Operators.
 </t>
   </si>
   <si>
@@ -944,7 +944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Is... is that Operator GreyThroat? And who’s this?
+    <t xml:space="preserve">[name="Suzuran"]  Is... is that Operator GreyThroat? And who's this?
 </t>
   </si>
   <si>
@@ -956,15 +956,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Miss Folinic is still in there! But Miss Atro... she’s... um...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  It’s okay. I understand. I just had to be sure... We’ll talk about it later.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Mmm... It’s, it’s nice to have some senior operators coming to help...
+    <t xml:space="preserve">[name="Suzuran"]  Miss Folinic is still in there! But Miss Atro... she's... um...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  It's okay. I understand. I just had to be sure... We'll talk about it later.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Mmm... It's, it's nice to have some senior operators coming to help...
 </t>
   </si>
   <si>
@@ -972,7 +972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  I’ll take care of the wounded. Whatever you do, please bring Miss Folinic back safely!
+    <t xml:space="preserve">[name="Suzuran"]  I'll take care of the wounded. Whatever you do, please bring Miss Folinic back safely!
 </t>
   </si>
   <si>
@@ -980,11 +980,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Such a young child... she’s an operator?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Amiya isn’t much older than Lisa, you know.
+    <t xml:space="preserve">[name="Ayerscarpe"]  Such a young child... she's an operator?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  Amiya isn't much older than Lisa, you know.
 </t>
   </si>
   <si>
@@ -1000,11 +1000,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  What a surprise. They always said you couldn’t handle working around Originium. I was worried.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  I’ve had enough of tragedy is all. Saving lives is what matters. Cut the chatter.
+    <t xml:space="preserve">[name="Ayerscarpe"]  What a surprise. They always said you couldn't handle working around Originium. I was worried.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  I've had enough of tragedy is all. Saving lives is what matters. Cut the chatter.
 </t>
   </si>
   <si>
@@ -1012,7 +1012,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  And they’re fast! G-get rid of them!
+    <t xml:space="preserve">[name="Armed Infected"]  And they're fast! G-get rid of them!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_05_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_05_end.xlsx
@@ -1064,7 +1064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="무장 감염자 A"]  넌 진짜 *라이타니아 욕설*이냐?! 거리에 뛰어다니는 놈들이 전부 인질이지 그럼 뭐야!
+    <t xml:space="preserve">[name="무장 감염자 A"]  넌 진짜 *라이타니엔 욕설*이냐?! 거리에 뛰어다니는 놈들이 전부 인질이지 그럼 뭐야!
 </t>
   </si>
   <si>
